--- a/biology/Botanique/Stipellula_capensis/Stipellula_capensis.xlsx
+++ b/biology/Botanique/Stipellula_capensis/Stipellula_capensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Stipellula capensis est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire des régions allant du bassin méditerranéen à l'Inde. 
@@ -512,16 +524,53 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce  a été décrite en premier par Carl Peter Thunberg sous le nom de Stipa capensis et publiée en 1794  dans Prodromus Plantarum Capensium  1: 19[2], puis reclassée dans le genre Stipellula en 2012 par Röser &amp; H.R.Hamasha[3]. 
-Synonymes
-Selon Plants of the World online (POWO)                (14 juillet 2021)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce  a été décrite en premier par Carl Peter Thunberg sous le nom de Stipa capensis et publiée en 1794  dans Prodromus Plantarum Capensium  1: 19, puis reclassée dans le genre Stipellula en 2012 par Röser &amp; H.R.Hamasha. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stipellula_capensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipellula_capensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (14 juillet 2021) :
 homotypiques
 Stipa capensis Thunb.(basionyme).
 Stipella capensis (Thunb.) Röser &amp; Hamasha
 hétérotypiques
-Achnatherum capense (Thunb.) Beauv.[5]
+Achnatherum capense (Thunb.) Beauv.
 Stipa tenacissima Ucria, nom. illeg.
 Stipa retorta Cav.
 Stipa tortilis Desf.
@@ -530,9 +579,43 @@
 Stipa tortilis var. pubescens Ball
 Stipa liwinowii Roshev.
 Stipa capensis var. tortilis (Desf.) Breistr.
-Stipellula capensis var. pubescens (Ball) F.M.Vázquez
-Liste des variétés
-Selon Tropicos                                           (14 juillet 2021)[1] :
+Stipellula capensis var. pubescens (Ball) F.M.Vázquez</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stipellula_capensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipellula_capensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 juillet 2021) :
 Stipellula capensis var. pubescens (Ball) F.M. Vázquez</t>
         </is>
       </c>
